--- a/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
+++ b/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Tea_houses\forms\Tea_houses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="5300" windowWidth="24740" windowHeight="23840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5655" yWindow="5302" windowWidth="24742" windowHeight="23839" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -15,18 +20,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>Customers</t>
   </si>
@@ -130,9 +135,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -293,12 +295,18 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -385,6 +393,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -645,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,13 +666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
@@ -669,7 +680,7 @@
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -686,11 +697,11 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -698,14 +709,14 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -716,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -727,7 +738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -738,7 +749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -749,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -760,7 +771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -771,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -782,93 +793,93 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -889,13 +900,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -906,26 +917,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -942,16 +953,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -959,47 +971,47 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1020,17 +1032,17 @@
       <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1039,123 +1051,123 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1176,61 +1188,61 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="47.1640625" customWidth="1"/>
+    <col min="7" max="7" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
+++ b/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="5300" windowWidth="24740" windowHeight="23840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
     <t>Phone_Number</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>Store_Owner</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -698,10 +698,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -967,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -975,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
@@ -996,10 +996,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1024,13 +1024,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1041,121 +1041,121 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1189,48 +1189,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
+++ b/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="5302" windowWidth="24742" windowHeight="23839" tabRatio="500"/>
+    <workbookView xWindow="5655" yWindow="5302" windowWidth="24742" windowHeight="23839" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>Customers</t>
   </si>
@@ -267,9 +267,6 @@
     <t>selectionArgs</t>
   </si>
   <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
     <t>Tea_type_list</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>[ '0' ]</t>
   </si>
   <si>
-    <t>'_id&gt;='+opendatakit.encodeURIValue(0)</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -301,6 +295,15 @@
   </si>
   <si>
     <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -697,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -709,10 +712,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -873,7 +876,7 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>70</v>
@@ -971,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1008,10 +1011,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1182,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1197,9 +1200,10 @@
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="47.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
@@ -1219,30 +1223,36 @@
         <v>77</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
+++ b/app/config/tables/Tea_houses/forms/Tea_houses/Tea_houses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>Customers</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>Enter the State</t>
@@ -700,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -712,10 +709,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -727,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -738,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -749,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -760,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -771,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -793,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -801,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -812,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -823,66 +820,66 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -899,47 +896,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -968,42 +966,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1011,10 +1009,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1039,138 +1037,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1205,54 +1203,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
